--- a/natmiOut/OldD7/LR-pairs_lrc2p/Serpinf1-Plxdc2.xlsx
+++ b/natmiOut/OldD7/LR-pairs_lrc2p/Serpinf1-Plxdc2.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="68" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="84" uniqueCount="26">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -76,6 +76,9 @@
     <t>Edge total expression derived specificity</t>
   </si>
   <si>
+    <t>ECs</t>
+  </si>
+  <si>
     <t>FAPs</t>
   </si>
   <si>
@@ -89,9 +92,6 @@
   </si>
   <si>
     <t>Plxdc2</t>
-  </si>
-  <si>
-    <t>ECs</t>
   </si>
 </sst>
 </file>
@@ -449,7 +449,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T13"/>
+  <dimension ref="A1:T17"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -522,61 +522,61 @@
         <v>20</v>
       </c>
       <c r="B2" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C2" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D2" t="s">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F2">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G2">
-        <v>672.218903522974</v>
+        <v>5.018449</v>
       </c>
       <c r="H2">
-        <v>672.218903522974</v>
+        <v>15.055347</v>
       </c>
       <c r="I2">
-        <v>0.9808505826289677</v>
+        <v>0.007216928732731275</v>
       </c>
       <c r="J2">
-        <v>0.9808505826289677</v>
+        <v>0.007216928732731275</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L2">
         <v>1</v>
       </c>
       <c r="M2">
-        <v>3.61802315219061</v>
+        <v>4.416526333333333</v>
       </c>
       <c r="N2">
-        <v>3.61802315219061</v>
+        <v>13.249579</v>
       </c>
       <c r="O2">
-        <v>0.02932117602716658</v>
+        <v>0.03380457256708</v>
       </c>
       <c r="P2">
-        <v>0.02932117602716658</v>
+        <v>0.03380457256708</v>
       </c>
       <c r="Q2">
-        <v>2432.103556286306</v>
+        <v>22.16411216099033</v>
       </c>
       <c r="R2">
-        <v>2432.103556286306</v>
+        <v>199.477009448913</v>
       </c>
       <c r="S2">
-        <v>0.02875969258961287</v>
+        <v>0.0002439651910570591</v>
       </c>
       <c r="T2">
-        <v>0.02875969258961287</v>
+        <v>0.0002439651910570591</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -584,61 +584,61 @@
         <v>20</v>
       </c>
       <c r="B3" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C3" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D3" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F3">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G3">
-        <v>672.218903522974</v>
+        <v>5.018449</v>
       </c>
       <c r="H3">
-        <v>672.218903522974</v>
+        <v>15.055347</v>
       </c>
       <c r="I3">
-        <v>0.9808505826289677</v>
+        <v>0.007216928732731275</v>
       </c>
       <c r="J3">
-        <v>0.9808505826289677</v>
+        <v>0.007216928732731275</v>
       </c>
       <c r="K3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L3">
         <v>1</v>
       </c>
       <c r="M3">
-        <v>111.713718140578</v>
+        <v>111.74676</v>
       </c>
       <c r="N3">
-        <v>111.713718140578</v>
+        <v>335.24028</v>
       </c>
       <c r="O3">
-        <v>0.905350092153471</v>
+        <v>0.8553218462766415</v>
       </c>
       <c r="P3">
-        <v>0.905350092153471</v>
+        <v>0.8553218462766417</v>
       </c>
       <c r="Q3">
-        <v>75096.07311693391</v>
+        <v>560.79541597524</v>
       </c>
       <c r="R3">
-        <v>75096.07311693391</v>
+        <v>5047.15874377716</v>
       </c>
       <c r="S3">
-        <v>0.8880131653719217</v>
+        <v>0.006172796808126657</v>
       </c>
       <c r="T3">
-        <v>0.8880131653719217</v>
+        <v>0.006172796808126658</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -646,61 +646,61 @@
         <v>20</v>
       </c>
       <c r="B4" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C4" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D4" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="E4">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F4">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G4">
-        <v>672.218903522974</v>
+        <v>5.018449</v>
       </c>
       <c r="H4">
-        <v>672.218903522974</v>
+        <v>15.055347</v>
       </c>
       <c r="I4">
-        <v>0.9808505826289677</v>
+        <v>0.007216928732731275</v>
       </c>
       <c r="J4">
-        <v>0.9808505826289677</v>
+        <v>0.007216928732731275</v>
       </c>
       <c r="K4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L4">
         <v>1</v>
       </c>
       <c r="M4">
-        <v>2.56281001533915</v>
+        <v>3.275441</v>
       </c>
       <c r="N4">
-        <v>2.56281001533915</v>
+        <v>9.826323</v>
       </c>
       <c r="O4">
-        <v>0.02076951982422965</v>
+        <v>0.02507058140647845</v>
       </c>
       <c r="P4">
-        <v>0.02076951982422965</v>
+        <v>0.02507058140647845</v>
       </c>
       <c r="Q4">
-        <v>1722.76933844898</v>
+        <v>16.437633611009</v>
       </c>
       <c r="R4">
-        <v>1722.76933844898</v>
+        <v>147.938702499081</v>
       </c>
       <c r="S4">
-        <v>0.02037179562051955</v>
+        <v>0.0001809325992986928</v>
       </c>
       <c r="T4">
-        <v>0.02037179562051955</v>
+        <v>0.0001809325992986928</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -708,61 +708,61 @@
         <v>20</v>
       </c>
       <c r="B5" t="s">
+        <v>24</v>
+      </c>
+      <c r="C5" t="s">
+        <v>25</v>
+      </c>
+      <c r="D5" t="s">
         <v>23</v>
       </c>
-      <c r="C5" t="s">
-        <v>24</v>
-      </c>
-      <c r="D5" t="s">
-        <v>22</v>
-      </c>
       <c r="E5">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F5">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G5">
-        <v>672.218903522974</v>
+        <v>5.018449</v>
       </c>
       <c r="H5">
-        <v>672.218903522974</v>
+        <v>15.055347</v>
       </c>
       <c r="I5">
-        <v>0.9808505826289677</v>
+        <v>0.007216928732731275</v>
       </c>
       <c r="J5">
-        <v>0.9808505826289677</v>
+        <v>0.007216928732731275</v>
       </c>
       <c r="K5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L5">
         <v>1</v>
       </c>
       <c r="M5">
-        <v>5.49828767073974</v>
+        <v>11.21005766666667</v>
       </c>
       <c r="N5">
-        <v>5.49828767073974</v>
+        <v>33.630173</v>
       </c>
       <c r="O5">
-        <v>0.0445592119951327</v>
+        <v>0.08580299974979994</v>
       </c>
       <c r="P5">
-        <v>0.0445592119951327</v>
+        <v>0.08580299974979995</v>
       </c>
       <c r="Q5">
-        <v>3696.052909278554</v>
+        <v>56.25710268722567</v>
       </c>
       <c r="R5">
-        <v>3696.052909278554</v>
+        <v>506.313924185031</v>
       </c>
       <c r="S5">
-        <v>0.0437059290469136</v>
+        <v>0.0006192341342488656</v>
       </c>
       <c r="T5">
-        <v>0.0437059290469136</v>
+        <v>0.0006192341342488657</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -770,61 +770,61 @@
         <v>21</v>
       </c>
       <c r="B6" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C6" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D6" t="s">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="E6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F6">
         <v>1</v>
       </c>
       <c r="G6">
-        <v>1.75394989051289</v>
+        <v>675.4945473333333</v>
       </c>
       <c r="H6">
-        <v>1.75394989051289</v>
+        <v>2026.483642</v>
       </c>
       <c r="I6">
-        <v>0.002559229981476989</v>
+        <v>0.9714148748852961</v>
       </c>
       <c r="J6">
-        <v>0.002559229981476989</v>
+        <v>0.9714148748852962</v>
       </c>
       <c r="K6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L6">
         <v>1</v>
       </c>
       <c r="M6">
-        <v>3.61802315219061</v>
+        <v>4.416526333333333</v>
       </c>
       <c r="N6">
-        <v>3.61802315219061</v>
+        <v>13.249579</v>
       </c>
       <c r="O6">
-        <v>0.02932117602716658</v>
+        <v>0.03380457256708</v>
       </c>
       <c r="P6">
-        <v>0.02932117602716658</v>
+        <v>0.03380457256708</v>
       </c>
       <c r="Q6">
-        <v>6.345831311657822</v>
+        <v>2983.339456320746</v>
       </c>
       <c r="R6">
-        <v>6.345831311657822</v>
+        <v>26850.05510688672</v>
       </c>
       <c r="S6">
-        <v>7.503963278088906E-05</v>
+        <v>0.03283826463080093</v>
       </c>
       <c r="T6">
-        <v>7.503963278088906E-05</v>
+        <v>0.03283826463080093</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -832,61 +832,61 @@
         <v>21</v>
       </c>
       <c r="B7" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C7" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D7" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F7">
         <v>1</v>
       </c>
       <c r="G7">
-        <v>1.75394989051289</v>
+        <v>675.4945473333333</v>
       </c>
       <c r="H7">
-        <v>1.75394989051289</v>
+        <v>2026.483642</v>
       </c>
       <c r="I7">
-        <v>0.002559229981476989</v>
+        <v>0.9714148748852961</v>
       </c>
       <c r="J7">
-        <v>0.002559229981476989</v>
+        <v>0.9714148748852962</v>
       </c>
       <c r="K7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L7">
         <v>1</v>
       </c>
       <c r="M7">
-        <v>111.713718140578</v>
+        <v>111.74676</v>
       </c>
       <c r="N7">
-        <v>111.713718140578</v>
+        <v>335.24028</v>
       </c>
       <c r="O7">
-        <v>0.905350092153471</v>
+        <v>0.8553218462766415</v>
       </c>
       <c r="P7">
-        <v>0.905350092153471</v>
+        <v>0.8553218462766417</v>
       </c>
       <c r="Q7">
-        <v>195.9402637014546</v>
+        <v>75484.32706216663</v>
       </c>
       <c r="R7">
-        <v>195.9402637014546</v>
+        <v>679358.9435594998</v>
       </c>
       <c r="S7">
-        <v>0.002316999099572118</v>
+        <v>0.8308723642874842</v>
       </c>
       <c r="T7">
-        <v>0.002316999099572118</v>
+        <v>0.8308723642874845</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -894,61 +894,61 @@
         <v>21</v>
       </c>
       <c r="B8" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C8" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D8" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="E8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F8">
         <v>1</v>
       </c>
       <c r="G8">
-        <v>1.75394989051289</v>
+        <v>675.4945473333333</v>
       </c>
       <c r="H8">
-        <v>1.75394989051289</v>
+        <v>2026.483642</v>
       </c>
       <c r="I8">
-        <v>0.002559229981476989</v>
+        <v>0.9714148748852961</v>
       </c>
       <c r="J8">
-        <v>0.002559229981476989</v>
+        <v>0.9714148748852962</v>
       </c>
       <c r="K8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L8">
         <v>1</v>
       </c>
       <c r="M8">
-        <v>2.56281001533915</v>
+        <v>3.275441</v>
       </c>
       <c r="N8">
-        <v>2.56281001533915</v>
+        <v>9.826323</v>
       </c>
       <c r="O8">
-        <v>0.02076951982422965</v>
+        <v>0.02507058140647845</v>
       </c>
       <c r="P8">
-        <v>0.02076951982422965</v>
+        <v>0.02507058140647845</v>
       </c>
       <c r="Q8">
-        <v>4.495040345809441</v>
+        <v>2212.542535612041</v>
       </c>
       <c r="R8">
-        <v>4.495040345809441</v>
+        <v>19912.88282050837</v>
       </c>
       <c r="S8">
-        <v>5.31539778350492E-05</v>
+        <v>0.02435393570027589</v>
       </c>
       <c r="T8">
-        <v>5.31539778350492E-05</v>
+        <v>0.02435393570027589</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -956,61 +956,61 @@
         <v>21</v>
       </c>
       <c r="B9" t="s">
+        <v>24</v>
+      </c>
+      <c r="C9" t="s">
+        <v>25</v>
+      </c>
+      <c r="D9" t="s">
         <v>23</v>
       </c>
-      <c r="C9" t="s">
-        <v>24</v>
-      </c>
-      <c r="D9" t="s">
-        <v>22</v>
-      </c>
       <c r="E9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F9">
         <v>1</v>
       </c>
       <c r="G9">
-        <v>1.75394989051289</v>
+        <v>675.4945473333333</v>
       </c>
       <c r="H9">
-        <v>1.75394989051289</v>
+        <v>2026.483642</v>
       </c>
       <c r="I9">
-        <v>0.002559229981476989</v>
+        <v>0.9714148748852961</v>
       </c>
       <c r="J9">
-        <v>0.002559229981476989</v>
+        <v>0.9714148748852962</v>
       </c>
       <c r="K9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L9">
         <v>1</v>
       </c>
       <c r="M9">
-        <v>5.49828767073974</v>
+        <v>11.21005766666667</v>
       </c>
       <c r="N9">
-        <v>5.49828767073974</v>
+        <v>33.630173</v>
       </c>
       <c r="O9">
-        <v>0.0445592119951327</v>
+        <v>0.08580299974979994</v>
       </c>
       <c r="P9">
-        <v>0.0445592119951327</v>
+        <v>0.08580299974979995</v>
       </c>
       <c r="Q9">
-        <v>9.64372105810234</v>
+        <v>7572.332829125562</v>
       </c>
       <c r="R9">
-        <v>9.64372105810234</v>
+        <v>68150.99546213007</v>
       </c>
       <c r="S9">
-        <v>0.0001140372712889327</v>
+        <v>0.08335031026673499</v>
       </c>
       <c r="T9">
-        <v>0.0001140372712889327</v>
+        <v>0.08335031026673502</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1018,61 +1018,61 @@
         <v>22</v>
       </c>
       <c r="B10" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C10" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D10" t="s">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="E10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F10">
         <v>1</v>
       </c>
       <c r="G10">
-        <v>11.3699657967845</v>
+        <v>1.832754333333333</v>
       </c>
       <c r="H10">
-        <v>11.3699657967845</v>
+        <v>5.498263</v>
       </c>
       <c r="I10">
-        <v>0.01659018738955527</v>
+        <v>0.002635646473297045</v>
       </c>
       <c r="J10">
-        <v>0.01659018738955527</v>
+        <v>0.002635646473297045</v>
       </c>
       <c r="K10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L10">
         <v>1</v>
       </c>
       <c r="M10">
-        <v>3.61802315219061</v>
+        <v>4.416526333333333</v>
       </c>
       <c r="N10">
-        <v>3.61802315219061</v>
+        <v>13.249579</v>
       </c>
       <c r="O10">
-        <v>0.02932117602716658</v>
+        <v>0.03380457256708</v>
       </c>
       <c r="P10">
-        <v>0.02932117602716658</v>
+        <v>0.03380457256708</v>
       </c>
       <c r="Q10">
-        <v>41.13679949238168</v>
+        <v>8.094407775697443</v>
       </c>
       <c r="R10">
-        <v>41.13679949238168</v>
+        <v>72.84966998127699</v>
       </c>
       <c r="S10">
-        <v>0.0004864438047728293</v>
+        <v>8.909690246773845E-05</v>
       </c>
       <c r="T10">
-        <v>0.0004864438047728293</v>
+        <v>8.909690246773845E-05</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1080,61 +1080,61 @@
         <v>22</v>
       </c>
       <c r="B11" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C11" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D11" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E11">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F11">
         <v>1</v>
       </c>
       <c r="G11">
-        <v>11.3699657967845</v>
+        <v>1.832754333333333</v>
       </c>
       <c r="H11">
-        <v>11.3699657967845</v>
+        <v>5.498263</v>
       </c>
       <c r="I11">
-        <v>0.01659018738955527</v>
+        <v>0.002635646473297045</v>
       </c>
       <c r="J11">
-        <v>0.01659018738955527</v>
+        <v>0.002635646473297045</v>
       </c>
       <c r="K11">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L11">
         <v>1</v>
       </c>
       <c r="M11">
-        <v>111.713718140578</v>
+        <v>111.74676</v>
       </c>
       <c r="N11">
-        <v>111.713718140578</v>
+        <v>335.24028</v>
       </c>
       <c r="O11">
-        <v>0.905350092153471</v>
+        <v>0.8553218462766415</v>
       </c>
       <c r="P11">
-        <v>0.905350092153471</v>
+        <v>0.8553218462766417</v>
       </c>
       <c r="Q11">
-        <v>1270.181154289996</v>
+        <v>204.80435862596</v>
       </c>
       <c r="R11">
-        <v>1270.181154289996</v>
+        <v>1843.23922763364</v>
       </c>
       <c r="S11">
-        <v>0.01501992768197721</v>
+        <v>0.002254326007672948</v>
       </c>
       <c r="T11">
-        <v>0.01501992768197721</v>
+        <v>0.002254326007672948</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1142,61 +1142,61 @@
         <v>22</v>
       </c>
       <c r="B12" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C12" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D12" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="E12">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F12">
         <v>1</v>
       </c>
       <c r="G12">
-        <v>11.3699657967845</v>
+        <v>1.832754333333333</v>
       </c>
       <c r="H12">
-        <v>11.3699657967845</v>
+        <v>5.498263</v>
       </c>
       <c r="I12">
-        <v>0.01659018738955527</v>
+        <v>0.002635646473297045</v>
       </c>
       <c r="J12">
-        <v>0.01659018738955527</v>
+        <v>0.002635646473297045</v>
       </c>
       <c r="K12">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L12">
         <v>1</v>
       </c>
       <c r="M12">
-        <v>2.56281001533915</v>
+        <v>3.275441</v>
       </c>
       <c r="N12">
-        <v>2.56281001533915</v>
+        <v>9.826323</v>
       </c>
       <c r="O12">
-        <v>0.02076951982422965</v>
+        <v>0.02507058140647845</v>
       </c>
       <c r="P12">
-        <v>0.02076951982422965</v>
+        <v>0.02507058140647845</v>
       </c>
       <c r="Q12">
-        <v>29.1390622180629</v>
+        <v>6.003078686327666</v>
       </c>
       <c r="R12">
-        <v>29.1390622180629</v>
+        <v>54.027708176949</v>
       </c>
       <c r="S12">
-        <v>0.0003445702258750529</v>
+        <v>6.607718946749139E-05</v>
       </c>
       <c r="T12">
-        <v>0.0003445702258750529</v>
+        <v>6.607718946749139E-05</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1204,61 +1204,309 @@
         <v>22</v>
       </c>
       <c r="B13" t="s">
+        <v>24</v>
+      </c>
+      <c r="C13" t="s">
+        <v>25</v>
+      </c>
+      <c r="D13" t="s">
         <v>23</v>
       </c>
-      <c r="C13" t="s">
+      <c r="E13">
+        <v>3</v>
+      </c>
+      <c r="F13">
+        <v>1</v>
+      </c>
+      <c r="G13">
+        <v>1.832754333333333</v>
+      </c>
+      <c r="H13">
+        <v>5.498263</v>
+      </c>
+      <c r="I13">
+        <v>0.002635646473297045</v>
+      </c>
+      <c r="J13">
+        <v>0.002635646473297045</v>
+      </c>
+      <c r="K13">
+        <v>3</v>
+      </c>
+      <c r="L13">
+        <v>1</v>
+      </c>
+      <c r="M13">
+        <v>11.21005766666667</v>
+      </c>
+      <c r="N13">
+        <v>33.630173</v>
+      </c>
+      <c r="O13">
+        <v>0.08580299974979994</v>
+      </c>
+      <c r="P13">
+        <v>0.08580299974979995</v>
+      </c>
+      <c r="Q13">
+        <v>20.54528176549989</v>
+      </c>
+      <c r="R13">
+        <v>184.907535889499</v>
+      </c>
+      <c r="S13">
+        <v>0.0002261463736888675</v>
+      </c>
+      <c r="T13">
+        <v>0.0002261463736888675</v>
+      </c>
+    </row>
+    <row r="14" spans="1:20">
+      <c r="A14" t="s">
+        <v>23</v>
+      </c>
+      <c r="B14" t="s">
         <v>24</v>
       </c>
-      <c r="D13" t="s">
+      <c r="C14" t="s">
+        <v>25</v>
+      </c>
+      <c r="D14" t="s">
+        <v>20</v>
+      </c>
+      <c r="E14">
+        <v>3</v>
+      </c>
+      <c r="F14">
+        <v>1</v>
+      </c>
+      <c r="G14">
+        <v>13.02608766666667</v>
+      </c>
+      <c r="H14">
+        <v>39.078263</v>
+      </c>
+      <c r="I14">
+        <v>0.0187325499086756</v>
+      </c>
+      <c r="J14">
+        <v>0.0187325499086756</v>
+      </c>
+      <c r="K14">
+        <v>3</v>
+      </c>
+      <c r="L14">
+        <v>1</v>
+      </c>
+      <c r="M14">
+        <v>4.416526333333333</v>
+      </c>
+      <c r="N14">
+        <v>13.249579</v>
+      </c>
+      <c r="O14">
+        <v>0.03380457256708</v>
+      </c>
+      <c r="P14">
+        <v>0.03380457256708</v>
+      </c>
+      <c r="Q14">
+        <v>57.53005920014188</v>
+      </c>
+      <c r="R14">
+        <v>517.770532801277</v>
+      </c>
+      <c r="S14">
+        <v>0.000633245842754272</v>
+      </c>
+      <c r="T14">
+        <v>0.000633245842754272</v>
+      </c>
+    </row>
+    <row r="15" spans="1:20">
+      <c r="A15" t="s">
+        <v>23</v>
+      </c>
+      <c r="B15" t="s">
+        <v>24</v>
+      </c>
+      <c r="C15" t="s">
+        <v>25</v>
+      </c>
+      <c r="D15" t="s">
+        <v>21</v>
+      </c>
+      <c r="E15">
+        <v>3</v>
+      </c>
+      <c r="F15">
+        <v>1</v>
+      </c>
+      <c r="G15">
+        <v>13.02608766666667</v>
+      </c>
+      <c r="H15">
+        <v>39.078263</v>
+      </c>
+      <c r="I15">
+        <v>0.0187325499086756</v>
+      </c>
+      <c r="J15">
+        <v>0.0187325499086756</v>
+      </c>
+      <c r="K15">
+        <v>3</v>
+      </c>
+      <c r="L15">
+        <v>1</v>
+      </c>
+      <c r="M15">
+        <v>111.74676</v>
+      </c>
+      <c r="N15">
+        <v>335.24028</v>
+      </c>
+      <c r="O15">
+        <v>0.8553218462766415</v>
+      </c>
+      <c r="P15">
+        <v>0.8553218462766417</v>
+      </c>
+      <c r="Q15">
+        <v>1455.62309222596</v>
+      </c>
+      <c r="R15">
+        <v>13100.60783003364</v>
+      </c>
+      <c r="S15">
+        <v>0.01602235917335774</v>
+      </c>
+      <c r="T15">
+        <v>0.01602235917335775</v>
+      </c>
+    </row>
+    <row r="16" spans="1:20">
+      <c r="A16" t="s">
+        <v>23</v>
+      </c>
+      <c r="B16" t="s">
+        <v>24</v>
+      </c>
+      <c r="C16" t="s">
+        <v>25</v>
+      </c>
+      <c r="D16" t="s">
         <v>22</v>
       </c>
-      <c r="E13">
-        <v>1</v>
-      </c>
-      <c r="F13">
-        <v>1</v>
-      </c>
-      <c r="G13">
-        <v>11.3699657967845</v>
-      </c>
-      <c r="H13">
-        <v>11.3699657967845</v>
-      </c>
-      <c r="I13">
-        <v>0.01659018738955527</v>
-      </c>
-      <c r="J13">
-        <v>0.01659018738955527</v>
-      </c>
-      <c r="K13">
-        <v>1</v>
-      </c>
-      <c r="L13">
-        <v>1</v>
-      </c>
-      <c r="M13">
-        <v>5.49828767073974</v>
-      </c>
-      <c r="N13">
-        <v>5.49828767073974</v>
-      </c>
-      <c r="O13">
-        <v>0.0445592119951327</v>
-      </c>
-      <c r="P13">
-        <v>0.0445592119951327</v>
-      </c>
-      <c r="Q13">
-        <v>62.51534275719276</v>
-      </c>
-      <c r="R13">
-        <v>62.51534275719276</v>
-      </c>
-      <c r="S13">
-        <v>0.0007392456769301704</v>
-      </c>
-      <c r="T13">
-        <v>0.0007392456769301704</v>
+      <c r="E16">
+        <v>3</v>
+      </c>
+      <c r="F16">
+        <v>1</v>
+      </c>
+      <c r="G16">
+        <v>13.02608766666667</v>
+      </c>
+      <c r="H16">
+        <v>39.078263</v>
+      </c>
+      <c r="I16">
+        <v>0.0187325499086756</v>
+      </c>
+      <c r="J16">
+        <v>0.0187325499086756</v>
+      </c>
+      <c r="K16">
+        <v>3</v>
+      </c>
+      <c r="L16">
+        <v>1</v>
+      </c>
+      <c r="M16">
+        <v>3.275441</v>
+      </c>
+      <c r="N16">
+        <v>9.826323</v>
+      </c>
+      <c r="O16">
+        <v>0.02507058140647845</v>
+      </c>
+      <c r="P16">
+        <v>0.02507058140647845</v>
+      </c>
+      <c r="Q16">
+        <v>42.66618161299434</v>
+      </c>
+      <c r="R16">
+        <v>383.995634516949</v>
+      </c>
+      <c r="S16">
+        <v>0.000469635917436372</v>
+      </c>
+      <c r="T16">
+        <v>0.000469635917436372</v>
+      </c>
+    </row>
+    <row r="17" spans="1:20">
+      <c r="A17" t="s">
+        <v>23</v>
+      </c>
+      <c r="B17" t="s">
+        <v>24</v>
+      </c>
+      <c r="C17" t="s">
+        <v>25</v>
+      </c>
+      <c r="D17" t="s">
+        <v>23</v>
+      </c>
+      <c r="E17">
+        <v>3</v>
+      </c>
+      <c r="F17">
+        <v>1</v>
+      </c>
+      <c r="G17">
+        <v>13.02608766666667</v>
+      </c>
+      <c r="H17">
+        <v>39.078263</v>
+      </c>
+      <c r="I17">
+        <v>0.0187325499086756</v>
+      </c>
+      <c r="J17">
+        <v>0.0187325499086756</v>
+      </c>
+      <c r="K17">
+        <v>3</v>
+      </c>
+      <c r="L17">
+        <v>1</v>
+      </c>
+      <c r="M17">
+        <v>11.21005766666667</v>
+      </c>
+      <c r="N17">
+        <v>33.630173</v>
+      </c>
+      <c r="O17">
+        <v>0.08580299974979994</v>
+      </c>
+      <c r="P17">
+        <v>0.08580299974979995</v>
+      </c>
+      <c r="Q17">
+        <v>146.0231939143888</v>
+      </c>
+      <c r="R17">
+        <v>1314.208745229499</v>
+      </c>
+      <c r="S17">
+        <v>0.001607308975127207</v>
+      </c>
+      <c r="T17">
+        <v>0.001607308975127207</v>
       </c>
     </row>
   </sheetData>
